--- a/Cronograma/Cronograma_V1.xlsx
+++ b/Cronograma/Cronograma_V1.xlsx
@@ -1291,26 +1291,14 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1342,14 +1330,26 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2194,11 +2194,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="-1553692800"/>
-        <c:axId val="-1505370912"/>
+        <c:axId val="-1488449408"/>
+        <c:axId val="-1525705648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1553692800"/>
+        <c:axId val="-1488449408"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2208,7 +2208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1505370912"/>
+        <c:crossAx val="-1525705648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1505370912"/>
+        <c:axId val="-1525705648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42705.0"/>
@@ -2229,7 +2229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1553692800"/>
+        <c:crossAx val="-1488449408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0"/>
@@ -2641,28 +2641,28 @@
   <sheetData>
     <row r="1" spans="2:260" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:260" ht="31" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="111"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="94"/>
     </row>
     <row r="3" spans="2:260" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -3199,7 +3199,7 @@
       <c r="IZ4" s="1"/>
     </row>
     <row r="5" spans="2:260" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="97" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -3475,7 +3475,7 @@
       <c r="IZ5" s="1"/>
     </row>
     <row r="6" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="102"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="IZ6" s="1"/>
     </row>
     <row r="7" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="IZ7" s="1"/>
     </row>
     <row r="8" spans="2:260" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="103"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="47" t="s">
         <v>4</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="IZ8" s="1"/>
     </row>
     <row r="9" spans="2:260" s="53" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="100" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -4319,7 +4319,7 @@
       <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="105"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="22" t="s">
         <v>7</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="IZ10" s="1"/>
     </row>
     <row r="11" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="105"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="22" t="s">
         <v>8</v>
       </c>
@@ -4863,7 +4863,7 @@
       <c r="IZ11" s="1"/>
     </row>
     <row r="12" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="105"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="22" t="s">
         <v>9</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="IZ12" s="1"/>
     </row>
     <row r="13" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="105"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="22" t="s">
         <v>10</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="IZ13" s="1"/>
     </row>
     <row r="14" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="105"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="22" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5679,7 @@
       <c r="IZ14" s="1"/>
     </row>
     <row r="15" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="105"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="22" t="s">
         <v>12</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="IZ15" s="1"/>
     </row>
     <row r="16" spans="2:260" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="26" t="s">
         <v>13</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="IZ16" s="1"/>
     </row>
     <row r="17" spans="2:260" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="102" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="56" t="s">
@@ -6497,7 +6497,7 @@
       <c r="IZ17" s="1"/>
     </row>
     <row r="18" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="107"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="56" t="s">
         <v>18</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="IZ18" s="1"/>
     </row>
     <row r="19" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="107"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="56" t="s">
         <v>19</v>
       </c>
@@ -7041,7 +7041,7 @@
       <c r="IZ19" s="1"/>
     </row>
     <row r="20" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="107"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="54" t="s">
         <v>37</v>
       </c>
@@ -7313,7 +7313,7 @@
       <c r="IZ20" s="1"/>
     </row>
     <row r="21" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="107"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="54" t="s">
         <v>20</v>
       </c>
@@ -7585,7 +7585,7 @@
       <c r="IZ21" s="1"/>
     </row>
     <row r="22" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="107"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="54" t="s">
         <v>21</v>
       </c>
@@ -7857,7 +7857,7 @@
       <c r="IZ22" s="1"/>
     </row>
     <row r="23" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="107"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="54" t="s">
         <v>22</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="IZ23" s="1"/>
     </row>
     <row r="24" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="107"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="70" t="s">
         <v>23</v>
       </c>
@@ -8401,7 +8401,7 @@
       <c r="IZ24" s="1"/>
     </row>
     <row r="25" spans="2:260" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="108"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="73" t="s">
         <v>24</v>
       </c>
@@ -8673,7 +8673,7 @@
       <c r="IZ25" s="1"/>
     </row>
     <row r="26" spans="2:260" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="95" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -8947,7 +8947,7 @@
       <c r="IZ26" s="1"/>
     </row>
     <row r="27" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="99"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="39" t="s">
         <v>25</v>
       </c>
@@ -9219,7 +9219,7 @@
       <c r="IZ27" s="1"/>
     </row>
     <row r="28" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="99"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="39" t="s">
         <v>26</v>
       </c>
@@ -9491,7 +9491,7 @@
       <c r="IZ28" s="1"/>
     </row>
     <row r="29" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="99"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="39" t="s">
         <v>27</v>
       </c>
@@ -9763,7 +9763,7 @@
       <c r="IZ29" s="1"/>
     </row>
     <row r="30" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="99"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="39" t="s">
         <v>28</v>
       </c>
@@ -10035,7 +10035,7 @@
       <c r="IZ30" s="1"/>
     </row>
     <row r="31" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="99"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="39" t="s">
         <v>29</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="IZ31" s="1"/>
     </row>
     <row r="32" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="99"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="39" t="s">
         <v>30</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="IZ32" s="1"/>
     </row>
     <row r="33" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B33" s="99"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="39" t="s">
         <v>31</v>
       </c>
@@ -10851,7 +10851,7 @@
       <c r="IZ33" s="1"/>
     </row>
     <row r="34" spans="2:260" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="100"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="78" t="s">
         <v>32</v>
       </c>
@@ -11384,11 +11384,11 @@
       <c r="IZ35" s="1"/>
     </row>
     <row r="36" spans="2:260" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="109"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
@@ -11648,10 +11648,10 @@
     </row>
     <row r="37" spans="2:260" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="88"/>
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="98"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
@@ -11911,10 +11911,10 @@
     </row>
     <row r="38" spans="2:260" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="89"/>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
@@ -12174,10 +12174,10 @@
     </row>
     <row r="39" spans="2:260" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="90"/>
-      <c r="C39" s="97" t="s">
+      <c r="C39" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="98"/>
+      <c r="D39" s="111"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -12436,10 +12436,10 @@
       <c r="B40" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="93"/>
+      <c r="D40" s="106"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -15761,16 +15761,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="B2:U2"/>
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J4 I5">

--- a/Cronograma/Cronograma_V1.xlsx
+++ b/Cronograma/Cronograma_V1.xlsx
@@ -1291,6 +1291,27 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1329,27 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2194,11 +2194,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="-1488449408"/>
-        <c:axId val="-1525705648"/>
+        <c:axId val="2029660272"/>
+        <c:axId val="2029650272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1488449408"/>
+        <c:axId val="2029660272"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2208,7 +2208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1525705648"/>
+        <c:crossAx val="2029650272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1525705648"/>
+        <c:axId val="2029650272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42705.0"/>
@@ -2229,7 +2229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1488449408"/>
+        <c:crossAx val="2029660272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0"/>
@@ -2626,7 +2626,7 @@
   <dimension ref="B1:IZ52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2641,28 +2641,28 @@
   <sheetData>
     <row r="1" spans="2:260" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:260" ht="31" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="94"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="3" spans="2:260" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -3199,7 +3199,7 @@
       <c r="IZ4" s="1"/>
     </row>
     <row r="5" spans="2:260" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="104" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -3475,7 +3475,7 @@
       <c r="IZ5" s="1"/>
     </row>
     <row r="6" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="98"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="IZ6" s="1"/>
     </row>
     <row r="7" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="98"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="IZ7" s="1"/>
     </row>
     <row r="8" spans="2:260" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="99"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="47" t="s">
         <v>4</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="IZ8" s="1"/>
     </row>
     <row r="9" spans="2:260" s="53" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="107" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -4316,10 +4316,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9" s="67"/>
+      <c r="H9" s="67">
+        <v>5</v>
+      </c>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="101"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="22" t="s">
         <v>7</v>
       </c>
@@ -4591,7 +4594,7 @@
       <c r="IZ10" s="1"/>
     </row>
     <row r="11" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="101"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="22" t="s">
         <v>8</v>
       </c>
@@ -4863,7 +4866,7 @@
       <c r="IZ11" s="1"/>
     </row>
     <row r="12" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="101"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="22" t="s">
         <v>9</v>
       </c>
@@ -5135,7 +5138,7 @@
       <c r="IZ12" s="1"/>
     </row>
     <row r="13" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="101"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="22" t="s">
         <v>10</v>
       </c>
@@ -5407,7 +5410,7 @@
       <c r="IZ13" s="1"/>
     </row>
     <row r="14" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="101"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="22" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5682,7 @@
       <c r="IZ14" s="1"/>
     </row>
     <row r="15" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="101"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="22" t="s">
         <v>12</v>
       </c>
@@ -5951,7 +5954,7 @@
       <c r="IZ15" s="1"/>
     </row>
     <row r="16" spans="2:260" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="26" t="s">
         <v>13</v>
       </c>
@@ -6223,7 +6226,7 @@
       <c r="IZ16" s="1"/>
     </row>
     <row r="17" spans="2:260" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="109" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="56" t="s">
@@ -6497,7 +6500,7 @@
       <c r="IZ17" s="1"/>
     </row>
     <row r="18" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="56" t="s">
         <v>18</v>
       </c>
@@ -6769,7 +6772,7 @@
       <c r="IZ18" s="1"/>
     </row>
     <row r="19" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="56" t="s">
         <v>19</v>
       </c>
@@ -7041,7 +7044,7 @@
       <c r="IZ19" s="1"/>
     </row>
     <row r="20" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="54" t="s">
         <v>37</v>
       </c>
@@ -7313,7 +7316,7 @@
       <c r="IZ20" s="1"/>
     </row>
     <row r="21" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="54" t="s">
         <v>20</v>
       </c>
@@ -7585,7 +7588,7 @@
       <c r="IZ21" s="1"/>
     </row>
     <row r="22" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="54" t="s">
         <v>21</v>
       </c>
@@ -7857,7 +7860,7 @@
       <c r="IZ22" s="1"/>
     </row>
     <row r="23" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="54" t="s">
         <v>22</v>
       </c>
@@ -8129,7 +8132,7 @@
       <c r="IZ23" s="1"/>
     </row>
     <row r="24" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="70" t="s">
         <v>23</v>
       </c>
@@ -8401,7 +8404,7 @@
       <c r="IZ24" s="1"/>
     </row>
     <row r="25" spans="2:260" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="104"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="73" t="s">
         <v>24</v>
       </c>
@@ -8673,7 +8676,7 @@
       <c r="IZ25" s="1"/>
     </row>
     <row r="26" spans="2:260" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="102" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -8947,7 +8950,7 @@
       <c r="IZ26" s="1"/>
     </row>
     <row r="27" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="95"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="39" t="s">
         <v>25</v>
       </c>
@@ -9219,7 +9222,7 @@
       <c r="IZ27" s="1"/>
     </row>
     <row r="28" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="95"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="39" t="s">
         <v>26</v>
       </c>
@@ -9491,7 +9494,7 @@
       <c r="IZ28" s="1"/>
     </row>
     <row r="29" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="95"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="39" t="s">
         <v>27</v>
       </c>
@@ -9763,7 +9766,7 @@
       <c r="IZ29" s="1"/>
     </row>
     <row r="30" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="95"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="39" t="s">
         <v>28</v>
       </c>
@@ -10035,7 +10038,7 @@
       <c r="IZ30" s="1"/>
     </row>
     <row r="31" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="95"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="39" t="s">
         <v>29</v>
       </c>
@@ -10307,7 +10310,7 @@
       <c r="IZ31" s="1"/>
     </row>
     <row r="32" spans="2:260" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="95"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="39" t="s">
         <v>30</v>
       </c>
@@ -10579,7 +10582,7 @@
       <c r="IZ32" s="1"/>
     </row>
     <row r="33" spans="2:260" ht="34" x14ac:dyDescent="0.2">
-      <c r="B33" s="95"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="39" t="s">
         <v>31</v>
       </c>
@@ -10851,7 +10854,7 @@
       <c r="IZ33" s="1"/>
     </row>
     <row r="34" spans="2:260" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="96"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="78" t="s">
         <v>32</v>
       </c>
@@ -11384,11 +11387,11 @@
       <c r="IZ35" s="1"/>
     </row>
     <row r="36" spans="2:260" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="109"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
@@ -11648,10 +11651,10 @@
     </row>
     <row r="37" spans="2:260" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="88"/>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="111"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
@@ -11911,10 +11914,10 @@
     </row>
     <row r="38" spans="2:260" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="89"/>
-      <c r="C38" s="105" t="s">
+      <c r="C38" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="106"/>
+      <c r="D38" s="93"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
@@ -12174,10 +12177,10 @@
     </row>
     <row r="39" spans="2:260" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="90"/>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="111"/>
+      <c r="D39" s="98"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -12436,10 +12439,10 @@
       <c r="B40" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="105" t="s">
+      <c r="C40" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="106"/>
+      <c r="D40" s="93"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -15761,20 +15764,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B17:B25"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="B17:B25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J4 I5">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15786,7 +15789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15798,7 +15801,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15810,7 +15813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B33 B5">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15822,7 +15825,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15833,8 +15836,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H34">
-    <cfRule type="iconSet" priority="83">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="iconSet" priority="85">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
